--- a/src/test/java/cn/featherfly/data/office/excel/2.xlsx
+++ b/src/test/java/cn/featherfly/data/office/excel/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,12 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,12 +68,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,7 +118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -155,7 +153,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A12"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A12" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -382,11 +380,6 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
